--- a/output/Дефициты АЛМ 2024-01-16.xlsx
+++ b/output/Дефициты АЛМ 2024-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>634</v>
+        <v>874</v>
       </c>
       <c r="B2" t="n">
         <v>112483</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="B3" t="n">
         <v>345021</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B4" t="n">
         <v>102319</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6905689789555729</v>
+        <v>0.7289927657206455</v>
       </c>
       <c r="K4" t="n">
         <v>4.03</v>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>241400</v>
+        <v>190150</v>
       </c>
       <c r="N4" t="n">
-        <v>972842.0000000001</v>
+        <v>766304.5</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="B5" t="n">
         <v>113289</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" t="n">
         <v>107294</v>
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6204690831556503</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="K6" t="n">
         <v>5.56</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>755</v>
+        <v>959</v>
       </c>
       <c r="B7" t="n">
         <v>112713</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="B8" t="n">
         <v>107441</v>
@@ -924,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9137055837563451</v>
+        <v>0.918091809180918</v>
       </c>
       <c r="K8" t="n">
         <v>6.66</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="B9" t="n">
-        <v>102321</v>
+        <v>102256</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -987,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4132402165378735</v>
+        <v>0.368440444233907</v>
       </c>
       <c r="K9" t="n">
         <v>5.24</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>57675</v>
+        <v>55300</v>
       </c>
       <c r="N9" t="n">
-        <v>302217</v>
+        <v>289772</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>801</v>
+        <v>580</v>
       </c>
       <c r="B10" t="n">
         <v>113368</v>
@@ -1074,14 +1074,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>527</v>
+        <v>728</v>
       </c>
       <c r="B11" t="n">
-        <v>107331</v>
+        <v>114028</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim"</t>
+          <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>КАДО-ПРИМ ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1101,33 +1101,33 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Кулинарный инвентарь</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Упаковка пластиковая для роллов</t>
+          <t>Мешки кондитерские в рулоне</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="K11" t="n">
-        <v>25.62</v>
+        <v>3023.62</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10450</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>267729</v>
+        <v>257007.7</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1137,14 +1137,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1112</v>
+        <v>321</v>
       </c>
       <c r="B12" t="n">
-        <v>114028</v>
+        <v>105811</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1164,33 +1164,33 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Кулинарный инвентарь</t>
+          <t>Пакеты на вынос</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Мешки кондитерские в рулоне</t>
+          <t>Пакеты бумажные без ручек на вынос белые, крафт размер M</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.96</v>
       </c>
       <c r="K12" t="n">
-        <v>3023.62</v>
+        <v>7.855</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>85</v>
+        <v>29882</v>
       </c>
       <c r="N12" t="n">
-        <v>257007.7</v>
+        <v>234723.11</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1200,24 +1200,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>547</v>
+        <v>1048</v>
       </c>
       <c r="B13" t="n">
-        <v>105811</v>
+        <v>114828</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+          <t>Весовая лента 58х40 мм ЭКО B, непринт., бел., термобум., 580 шт/рул (ООО НБК Трейд)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>НБК ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1227,33 +1227,33 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Пакеты на вынос</t>
+          <t>Чековые и весовые ле</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Пакеты бумажные без ручек на вынос белые, крафт размер M</t>
+          <t>Весовые ленты 58х40 мм</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.96</v>
+        <v>0.9828080229226361</v>
       </c>
       <c r="K13" t="n">
-        <v>7.855</v>
+        <v>445</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>29882</v>
+        <v>513.75</v>
       </c>
       <c r="N13" t="n">
-        <v>234723.11</v>
+        <v>228618.75</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="B14" t="n">
         <v>107157</v>
@@ -1326,14 +1326,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>811</v>
+        <v>1026</v>
       </c>
       <c r="B15" t="n">
-        <v>112850</v>
+        <v>113504</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Весовая лента 58х40 мм ЭКО B, непринт., бел., термобум., 580 шт/рул (ООО НБК Трейд)</t>
+          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>НБК ТРЕЙД ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1353,33 +1353,33 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Чековые и весовые ле</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Весовые ленты 58х40 мм</t>
+          <t>Крышки ПП для стаканов</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9825072886297376</v>
+        <v>0.4133430021754895</v>
       </c>
       <c r="K15" t="n">
-        <v>445</v>
+        <v>8.34</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>475</v>
+        <v>20662.5</v>
       </c>
       <c r="N15" t="n">
-        <v>211375</v>
+        <v>172325.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1389,14 +1389,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>800</v>
+        <v>693</v>
       </c>
       <c r="B16" t="n">
-        <v>113504</v>
+        <v>113508</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1416,33 +1416,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Крышки ПП для стаканов</t>
+          <t>Сахар</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3615604186489058</v>
+        <v>0.3087400681044268</v>
       </c>
       <c r="K16" t="n">
-        <v>8.34</v>
+        <v>2.94</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>23793.75</v>
+        <v>58000</v>
       </c>
       <c r="N16" t="n">
-        <v>198439.875</v>
+        <v>170520</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>729</v>
+        <v>103</v>
       </c>
       <c r="B17" t="n">
-        <v>112278</v>
+        <v>105654</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>НБК ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1479,33 +1479,33 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Чековые и весовые ле</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Сахар</t>
+          <t>Чековые ленты 80 мм</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3080407701019253</v>
+        <v>0.6091370558375635</v>
       </c>
       <c r="K17" t="n">
-        <v>2.94</v>
+        <v>263.2</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>57625</v>
+        <v>592</v>
       </c>
       <c r="N17" t="n">
-        <v>169417.5</v>
+        <v>155814.4</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1515,24 +1515,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>122</v>
+        <v>975</v>
       </c>
       <c r="B18" t="n">
-        <v>105654</v>
+        <v>115423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
+          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>НБК ТРЕЙД ООО</t>
+          <t>Ирмас Лтд ТОО</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1542,33 +1542,33 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Чековые и весовые ле</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Чековые ленты 80 мм</t>
+          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6091370558375635</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>263.2</v>
+        <v>198.42</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="N18" t="n">
-        <v>155814.4</v>
+        <v>130957.2</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1087</v>
+        <v>318</v>
       </c>
       <c r="B19" t="n">
         <v>104381</v>
@@ -1617,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4512974802557352</v>
+        <v>0.4801920768307323</v>
       </c>
       <c r="K19" t="n">
         <v>2.85</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>46112.5</v>
+        <v>45550</v>
       </c>
       <c r="N19" t="n">
-        <v>131420.625</v>
+        <v>129817.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1641,24 +1641,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1012</v>
+        <v>247</v>
       </c>
       <c r="B20" t="n">
-        <v>115423</v>
+        <v>141080</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ирмас Лтд ТОО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1668,33 +1668,33 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.7157509157509158</v>
       </c>
       <c r="K20" t="n">
-        <v>198.42</v>
+        <v>4.18</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>660</v>
+        <v>24500</v>
       </c>
       <c r="N20" t="n">
-        <v>130957.2</v>
+        <v>102410</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1704,14 +1704,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B21" t="n">
-        <v>141080</v>
+        <v>115419</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1731,22 +1731,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ложки пластиковые столовые белые 165 мм</t>
+          <t>Стаканы-шейкеры ПЭТ от 300 мл</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7115241635687732</v>
+        <v>0.4010025062656641</v>
       </c>
       <c r="K21" t="n">
-        <v>4.18</v>
+        <v>19.785</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>24625</v>
+        <v>4987.5</v>
       </c>
       <c r="N21" t="n">
-        <v>102932.5</v>
+        <v>98677.6875</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1767,24 +1767,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>294</v>
+        <v>925</v>
       </c>
       <c r="B22" t="n">
-        <v>115419</v>
+        <v>113958</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1794,33 +1794,33 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Стаканы-шейкеры ПЭТ от 300 мл</t>
+          <t>Пакеты бумажные пищевые без окна без ламинации белые</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4010025062656641</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>19.785</v>
+        <v>3.23</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4987.5</v>
+        <v>25400</v>
       </c>
       <c r="N22" t="n">
-        <v>98677.6875</v>
+        <v>82042</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1830,14 +1830,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>355</v>
+        <v>705</v>
       </c>
       <c r="B23" t="n">
-        <v>115416</v>
+        <v>112309</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1857,33 +1857,33 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Стаканы-шейкеры ПЭТ до 300 мл</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
-        <v>14.39</v>
+        <v>1136.8</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6725</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>96772.75</v>
+        <v>79576</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1893,24 +1893,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>895</v>
+        <v>536</v>
       </c>
       <c r="B24" t="n">
-        <v>113958</v>
+        <v>115416</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
+          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1920,33 +1920,33 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Пакеты бумажные пищевые без окна без ламинации белые</t>
+          <t>Стаканы-шейкеры ПЭТ до 300 мл</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.4777070063694268</v>
       </c>
       <c r="K24" t="n">
-        <v>3.23</v>
+        <v>14.39</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25400</v>
+        <v>5412.5</v>
       </c>
       <c r="N24" t="n">
-        <v>82042</v>
+        <v>77885.875</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1956,24 +1956,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>702</v>
+        <v>558</v>
       </c>
       <c r="B25" t="n">
-        <v>112309</v>
+        <v>113380</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ТК ТАСМА ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,22 +1983,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
+          <t>Стаканы бумажные до 250 мл с дизайном 1-слойные</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>1136.8</v>
+        <v>9.16</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="N25" t="n">
-        <v>79576</v>
+        <v>73280</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>645</v>
+        <v>178</v>
       </c>
       <c r="B26" t="n">
-        <v>191620</v>
+        <v>140080</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 230х155х87 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+          <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2046,22 +2046,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Лотки и ланч-боксы</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ланч-боксы из сахарного тростника</t>
+          <t>Вилки пластиковые белые 165 мм</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4660194174757282</v>
+        <v>0.6786703601108033</v>
       </c>
       <c r="K26" t="n">
-        <v>61.01</v>
+        <v>3.17</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1250</v>
+        <v>20775</v>
       </c>
       <c r="N26" t="n">
-        <v>76262.5</v>
+        <v>65856.75</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>303</v>
+        <v>475</v>
       </c>
       <c r="B27" t="n">
-        <v>140080</v>
+        <v>115415</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Стакан одноразовый 100 мл, прозр., ПЭТ, 100 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2109,22 +2109,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Вилки пластиковые белые 165 мм</t>
+          <t>Стаканы-шейкеры ПЭТ до 300 мл</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6547619047619048</v>
+        <v>0.7707129094412332</v>
       </c>
       <c r="K27" t="n">
-        <v>3.17</v>
+        <v>2.63</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>23662.5</v>
+        <v>22800</v>
       </c>
       <c r="N27" t="n">
-        <v>75010.125</v>
+        <v>59964</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2145,24 +2145,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>809</v>
+        <v>412</v>
       </c>
       <c r="B28" t="n">
-        <v>113380</v>
+        <v>102186</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2172,33 +2172,33 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Мешки для мусора</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Стаканы бумажные до 250 мл с дизайном 1-слойные</t>
+          <t>Мешки для мусора в рулонах 180 л</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>0.8241758241758241</v>
       </c>
       <c r="K28" t="n">
-        <v>9.16</v>
+        <v>398.99</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>73280</v>
+        <v>59848.5</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2208,24 +2208,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>363</v>
+        <v>1068</v>
       </c>
       <c r="B29" t="n">
-        <v>115415</v>
+        <v>106502</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 100 мл, прозр., ПЭТ, 100 шт/упак "Upax-Unity"</t>
+          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2235,22 +2235,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Стаканы-шейкеры ПЭТ до 300 мл</t>
+          <t>Размешиватели из натуральных материалов</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7989347536617842</v>
+        <v>0.4272013949433304</v>
       </c>
       <c r="K29" t="n">
-        <v>2.63</v>
+        <v>0.9</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>26300</v>
+        <v>63500</v>
       </c>
       <c r="N29" t="n">
-        <v>69169</v>
+        <v>57150</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2271,24 +2271,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>441</v>
+        <v>550</v>
       </c>
       <c r="B30" t="n">
-        <v>110621</v>
+        <v>143080</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
+          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Контейнеры для сэндв</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Контейнеры картонные для сэндвичей</t>
+          <t>Ложки пластиковые чайные и проч. белые</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.535077288941736</v>
       </c>
       <c r="K30" t="n">
-        <v>27.9</v>
+        <v>2.02</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2200</v>
+        <v>26375</v>
       </c>
       <c r="N30" t="n">
-        <v>61380</v>
+        <v>53277.5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2334,14 +2334,14 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="B31" t="n">
-        <v>102186</v>
+        <v>102202</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+          <t>Шпагат ПП 1.0 кТекс, плоский, кондитерский, 1000 м [1 кг] (НПП Краснодарволокно)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
+          <t>АЛЬТ-ПАК ООО</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2361,33 +2361,33 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Мешки для мусора</t>
+          <t>Упаковочные материал</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Мешки для мусора в рулонах 180 л</t>
+          <t>Шпагат ПП</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8241758241758241</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>398.99</v>
+        <v>1407.64</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="N31" t="n">
-        <v>59848.5</v>
+        <v>50675.04</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2397,24 +2397,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>579</v>
+        <v>130</v>
       </c>
       <c r="B32" t="n">
-        <v>106502</v>
+        <v>342047</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Фарт)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ФАРТ ООО</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2429,17 +2429,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Размешиватели из натуральных материалов</t>
+          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4438405797101449</v>
+        <v>0.8753096614368291</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9</v>
+        <v>1096.36</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>65375</v>
+        <v>44</v>
       </c>
       <c r="N32" t="n">
-        <v>58837.5</v>
+        <v>48239.84</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>333</v>
+        <v>683</v>
       </c>
       <c r="B33" t="n">
-        <v>143080</v>
+        <v>345044</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Ложки пластиковые чайные и проч. белые</t>
+          <t>Размешиватели из натуральных материалов</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>0.535077288941736</v>
+        <v>0.3553719008264463</v>
       </c>
       <c r="K33" t="n">
-        <v>2.02</v>
+        <v>1.09</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>26375</v>
+        <v>43250</v>
       </c>
       <c r="N33" t="n">
-        <v>53277.5</v>
+        <v>47142.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2523,14 +2523,14 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>166</v>
+        <v>943</v>
       </c>
       <c r="B34" t="n">
-        <v>102202</v>
+        <v>114390</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Шпагат ПП 1.0 кТекс, плоский, кондитерский, 1000 м [1 кг] (НПП Краснодарволокно)</t>
+          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>АЛЬТ-ПАК ООО</t>
+          <t>МОНОПАК ООО</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2550,22 +2550,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Упаковочные материал</t>
+          <t>Пленки пищевые</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Шпагат ПП</t>
+          <t>Пленки пищевые ПВХ 430-450 мм</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="K34" t="n">
-        <v>1407.64</v>
+        <v>3924.36</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>50675.04</v>
+        <v>39243.6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2586,14 +2586,14 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>659</v>
+        <v>854</v>
       </c>
       <c r="B35" t="n">
-        <v>345044</v>
+        <v>111749</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2613,33 +2613,33 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Размешиватели из натуральных материалов</t>
+          <t>Ложки пластиковые столовые белые 165 мм</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3458445040214477</v>
+        <v>0.2562459961563101</v>
       </c>
       <c r="K35" t="n">
-        <v>1.09</v>
+        <v>3.13</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>42687.5</v>
+        <v>12425</v>
       </c>
       <c r="N35" t="n">
-        <v>46529.375</v>
+        <v>38890.25</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="B36" t="n">
-        <v>103175</v>
+        <v>107469</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Вилка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Капхолдер [манжета] 288х56 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТИПОГРАФИЯ АЛЬБ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2676,22 +2676,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Стаканы, чашки, крыш</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Вилки пластиковые цветные 180 мм</t>
+          <t>Капхолдеры для стаканов</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4995836802664446</v>
+        <v>0.255863539445629</v>
       </c>
       <c r="K36" t="n">
-        <v>5.04</v>
+        <v>5.67</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8831.25</v>
+        <v>6668.75</v>
       </c>
       <c r="N36" t="n">
-        <v>44509.5</v>
+        <v>37811.8125</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>709</v>
+        <v>1100</v>
       </c>
       <c r="B37" t="n">
         <v>112967</v>
@@ -2751,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>0.93935790725327</v>
+        <v>0.9414466130884042</v>
       </c>
       <c r="K37" t="n">
         <v>9</v>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>4825</v>
+        <v>3762.5</v>
       </c>
       <c r="N37" t="n">
-        <v>43425</v>
+        <v>33862.5</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2775,24 +2775,24 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>130</v>
+        <v>752</v>
       </c>
       <c r="B38" t="n">
-        <v>342047</v>
+        <v>104412</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Фарт)</t>
+          <t xml:space="preserve">Контейнер 1450 мл, 260х150х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ФАРТ ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2802,22 +2802,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Контейнеры из натура</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
+          <t>Контейнеры универсальные картонные прямоугольные от 1000 мл</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8709942481511914</v>
+        <v>0.6201550387596899</v>
       </c>
       <c r="K38" t="n">
-        <v>1096.36</v>
+        <v>67.64</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>37.625</v>
+        <v>500</v>
       </c>
       <c r="N38" t="n">
-        <v>41250.545</v>
+        <v>33820</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2838,14 +2838,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>306</v>
+        <v>841</v>
       </c>
       <c r="B39" t="n">
-        <v>107469</v>
+        <v>112294</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Капхолдер [манжета] 288х56 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
+          <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ТИПОГРАФИЯ АЛЬБ</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2865,33 +2865,33 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Капхолдеры для стаканов</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3301056338028169</v>
+        <v>0.9375</v>
       </c>
       <c r="K39" t="n">
-        <v>5.67</v>
+        <v>3341.8</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>7012.5</v>
+        <v>9</v>
       </c>
       <c r="N39" t="n">
-        <v>39760.875</v>
+        <v>30076.2</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>947</v>
+        <v>264</v>
       </c>
       <c r="B40" t="n">
-        <v>114390</v>
+        <v>102483</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак)</t>
+          <t>Сетка упаковочная [рукав] 400ммх500м, желт., ПП (ООО Ситрона-Полимер)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>МОНОПАК ООО</t>
+          <t>СИТРОНА-ПОЛИМЕР</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2928,22 +2928,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Пленки пищевые</t>
+          <t>Упаковочные материал</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Пленки пищевые ПВХ 430-450 мм</t>
+          <t>Сетки упаковочные_группа</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.859375</v>
       </c>
       <c r="K40" t="n">
-        <v>3924.36</v>
+        <v>4057.2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N40" t="n">
-        <v>39243.6</v>
+        <v>28400.4</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>750</v>
+        <v>384</v>
       </c>
       <c r="B41" t="n">
-        <v>111749</v>
+        <v>159474</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+          <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2991,33 +2991,33 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ложки пластиковые столовые белые 165 мм</t>
+          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2562459961563101</v>
+        <v>0.4778156996587031</v>
       </c>
       <c r="K41" t="n">
-        <v>3.13</v>
+        <v>8.35</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Ядерные</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>12425</v>
+        <v>3175</v>
       </c>
       <c r="N41" t="n">
-        <v>38890.25</v>
+        <v>26511.25</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3027,14 +3027,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>126</v>
+        <v>838</v>
       </c>
       <c r="B42" t="n">
-        <v>847281</v>
+        <v>111613</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+          <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ПРО-БРАЙТ ООО</t>
+          <t>ДЕМАРТ ООО</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3054,22 +3054,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Средства для мытья посуды в посудомоечных машинах и пароконвектоматов</t>
+          <t>Пакеты бумажные с кручеными ручками бурый крафт</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="K42" t="n">
-        <v>5174.4</v>
+        <v>32.78</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>7.125</v>
+        <v>607</v>
       </c>
       <c r="N42" t="n">
-        <v>36867.6</v>
+        <v>19897.46</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3090,24 +3090,24 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>475</v>
+        <v>277</v>
       </c>
       <c r="B43" t="n">
-        <v>104412</v>
+        <v>253042</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнер 1450 мл, 260х150х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3117,22 +3117,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Контейнеры из натура</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные картонные прямоугольные от 1000 мл</t>
+          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6201550387596899</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>67.64</v>
+        <v>29.84</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3140,10 +3140,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="N43" t="n">
-        <v>33820</v>
+        <v>19694.4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>780</v>
+        <v>539</v>
       </c>
       <c r="B44" t="n">
-        <v>112294</v>
+        <v>158229</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ТК ТАСМА ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3180,33 +3180,33 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
+          <t>Крышки к круглым контейнерам универсальные ПЭТ</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9375</v>
+        <v>0.7593261131167268</v>
       </c>
       <c r="K44" t="n">
-        <v>3341.8</v>
+        <v>31.26</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>9</v>
+        <v>573.75</v>
       </c>
       <c r="N44" t="n">
-        <v>30076.2</v>
+        <v>17935.425</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3216,14 +3216,14 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>88</v>
+        <v>760</v>
       </c>
       <c r="B45" t="n">
-        <v>100090</v>
+        <v>113306</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Жидкость незамерзающая для стекол "Hi-tech Wash", бутылка ПЭТ, 5000 мл</t>
+          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ВИТОХИМ ООО</t>
+          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3243,22 +3243,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Средства бытовые для мытья стекол и зеркал от 3.5 л</t>
+          <t>Пакеты типа "Майка" белые, черные, прозрачные без дизайна</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4329004329004329</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K45" t="n">
-        <v>527.47</v>
+        <v>294.84</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>57</v>
+        <v>60.625</v>
       </c>
       <c r="N45" t="n">
-        <v>30065.79</v>
+        <v>17874.675</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3279,24 +3279,24 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>358</v>
+        <v>930</v>
       </c>
       <c r="B46" t="n">
-        <v>158229</v>
+        <v>115414</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>Ирмас Лтд ТОО</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3306,33 +3306,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Крышки к круглым контейнерам универсальные ПЭТ</t>
+          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7910572503134141</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>31.26</v>
+        <v>37.8</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>935.625</v>
+        <v>440</v>
       </c>
       <c r="N46" t="n">
-        <v>29247.6375</v>
+        <v>16632</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3342,14 +3342,14 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>157</v>
+        <v>748</v>
       </c>
       <c r="B47" t="n">
-        <v>102483</v>
+        <v>501323</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Сетка упаковочная [рукав] 400ммх500м, желт., ПП (ООО Ситрона-Полимер)</t>
+          <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>СИТРОНА-ПОЛИМЕР</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3369,33 +3369,33 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Упаковочные материал</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Сетки упаковочные_группа</t>
+          <t>Комплекты для индивидуального использования №3</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>0.859375</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="K47" t="n">
-        <v>4057.2</v>
+        <v>13.39</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>1200</v>
       </c>
       <c r="N47" t="n">
-        <v>28400.4</v>
+        <v>16068</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3405,14 +3405,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>414</v>
+        <v>935</v>
       </c>
       <c r="B48" t="n">
-        <v>159474</v>
+        <v>108452</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+          <t>Трубочки для коктейлей 195 мм, d6 мм, диз. "Леденец", бело-красн., бум. прямые, 250 шт/упак (ООО Ком</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3432,33 +3432,33 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Крышки к прямоугольным контейнерам универсальные ПЭТ</t>
+          <t>Трубочки для коктейлей бумажные прямые D 6 мм</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4778156996587031</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>8.35</v>
+        <v>1245.96</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3175</v>
+        <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>26511.25</v>
+        <v>12459.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3468,14 +3468,14 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>574</v>
+        <v>265</v>
       </c>
       <c r="B49" t="n">
-        <v>104975</v>
+        <v>102485</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Пакет [330+180]х370 мм с плоск. ручками, крафт, бум., 200 шт/кор (ООО Демарт)</t>
+          <t>Сетка упаковочная [рукав] 400ммх500м, оранж., ПП (ООО Ситрона-Полимер)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ДЕМАРТ ООО</t>
+          <t>СИТРОНА-ПОЛИМЕР</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3495,33 +3495,33 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Упаковочные материал</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с плоскими ручками бурый крафт</t>
+          <t>Сетки упаковочные_группа</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3883495145631068</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K49" t="n">
-        <v>34.35</v>
+        <v>4057.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>593</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>20369.55</v>
+        <v>12171.6</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3531,14 +3531,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>718</v>
+        <v>585</v>
       </c>
       <c r="B50" t="n">
-        <v>111613</v>
+        <v>253043</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ДЕМАРТ ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3558,22 +3558,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с кручеными ручками бурый крафт</t>
+          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>32.78</v>
+        <v>32.89</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>607</v>
+        <v>335</v>
       </c>
       <c r="N50" t="n">
-        <v>19897.46</v>
+        <v>11018.15</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3597,11 +3597,11 @@
         <v>1082</v>
       </c>
       <c r="B51" t="n">
-        <v>253042</v>
+        <v>451356</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3621,22 +3621,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Полотенца бумажные</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
+          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 2-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K51" t="n">
-        <v>29.84</v>
+        <v>878.46</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3644,10 +3644,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>19694.4</v>
+        <v>10541.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3657,14 +3657,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>832</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n">
-        <v>113306</v>
+        <v>470243</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+          <t>Средство для мытья посуды "Ника" Супер плюс. Лайм, концентрат, канистра, 5000 г</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
+          <t>НПФ ГЕНИКС ООО</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3684,33 +3684,33 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Пакеты типа "Майка" белые, черные, прозрачные без дизайна</t>
+          <t>Средства профессиональные для ручного мытья посуды от 3.5 л (кг)</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="K52" t="n">
-        <v>294.84</v>
+        <v>2607.41</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60.625</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
-        <v>17874.675</v>
+        <v>10429.64</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3720,14 +3720,14 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1001</v>
+        <v>576</v>
       </c>
       <c r="B53" t="n">
-        <v>115414</v>
+        <v>112834</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ирмас Лтд ТОО</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3747,33 +3747,33 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Пакеты на вынос</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Контейнеры для суши универсальные 1-секционные длиной от 200 мм</t>
+          <t>Пакеты бумажные без ручек на вынос белые, крафт размер S</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.359871974394879</v>
       </c>
       <c r="K53" t="n">
-        <v>37.8</v>
+        <v>5.58</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>440</v>
+        <v>1826.5</v>
       </c>
       <c r="N53" t="n">
-        <v>16632</v>
+        <v>10191.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3783,24 +3783,24 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>562</v>
+        <v>1024</v>
       </c>
       <c r="B54" t="n">
-        <v>108184</v>
+        <v>112788</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3810,22 +3810,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Соусники и крышки</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Пакеты бумажные с кручеными ручками бурый крафт</t>
+          <t>Соусники ПП с неразъемной крышкой до 50 мл</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>0.297029702970297</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K54" t="n">
-        <v>27.28</v>
+        <v>5.95</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>600</v>
+        <v>1640</v>
       </c>
       <c r="N54" t="n">
-        <v>16368</v>
+        <v>9758</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3846,14 +3846,14 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>474</v>
+        <v>942</v>
       </c>
       <c r="B55" t="n">
-        <v>501323</v>
+        <v>114198</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+          <t>Салфетки 330х330 мм 3-сл., диз. "Новогоднее поздравление", разноцв., бум., 20 шт/упак "Bouquet"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t xml:space="preserve">РУССКАЯ БУМАГА </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3873,33 +3873,33 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Столовые приборы</t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Комплекты для индивидуального использования №3</t>
+          <t>Салфетки с тематическим дизайном 3-слойные 33х33 (40х40)</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7884615384615384</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>13.39</v>
+        <v>234.57</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1200</v>
+        <v>36</v>
       </c>
       <c r="N55" t="n">
-        <v>16068</v>
+        <v>8444.52</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3909,24 +3909,24 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>972</v>
+        <v>730</v>
       </c>
       <c r="B56" t="n">
-        <v>108452</v>
+        <v>115168</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 195 мм, d6 мм, диз. "Леденец", бело-красн., бум. прямые, 250 шт/упак (ООО Ком</t>
+          <t xml:space="preserve">Коробка для кондит. изделий 160х160х100 мм, с окном, неразъем.крышка, бел., карт., 25 шт/упак "OSQ" </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Упаковка для кондите</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей бумажные прямые D 6 мм</t>
+          <t>Упаковка для кондитерских изделий картонная с окном</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1245.96</v>
+        <v>156.17</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>12459.6</v>
+        <v>7808.499999999999</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3972,24 +3972,24 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1011</v>
+        <v>579</v>
       </c>
       <c r="B57" t="n">
-        <v>114982</v>
+        <v>113312</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Салфетки 330х330 мм 2-сл., бел., бум., 100 шт/упак "Murex"</t>
+          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. "Master Bake"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ИП АСК</t>
+          <t>МПП ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3999,33 +3999,33 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Пергамент и бумага д</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Салфетки белые 2-слойные 33х33 (40х40)</t>
+          <t>Бумага для выпечки силиконизированная в рулоне</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6162790697674418</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>470</v>
+        <v>702.24</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N57" t="n">
-        <v>12220</v>
+        <v>7724.64</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4035,14 +4035,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="B58" t="n">
-        <v>102485</v>
+        <v>103473</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Сетка упаковочная [рукав] 400ммх500м, оранж., ПП (ООО Ситрона-Полимер)</t>
+          <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>СИТРОНА-ПОЛИМЕР</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4062,33 +4062,33 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Упаковочные материал</t>
+          <t>Столовые приборы</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Сетки упаковочные_группа</t>
+          <t>Ложки пластиковые столовые цветные 180 мм</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5235602094240838</v>
       </c>
       <c r="K58" t="n">
-        <v>4057.2</v>
+        <v>5.04</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>1312.5</v>
       </c>
       <c r="N58" t="n">
-        <v>12171.6</v>
+        <v>6615</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4098,24 +4098,24 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>756</v>
+        <v>985</v>
       </c>
       <c r="B59" t="n">
-        <v>112141</v>
+        <v>112966</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Пакет пищевой [110+40]х155 мм без руч., без окна, бел., бум., 25000 шт/кор (ООО Демарт)</t>
+          <t>Контейнер 350 мл 1-секц. 108х82х69 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ДЕМАРТ ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4125,22 +4125,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Пакеты бумажные пищевые без окна без ламинации белые</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные 350-499 мл</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>0.875</v>
+        <v>0.9530483531885073</v>
       </c>
       <c r="K59" t="n">
-        <v>4.43</v>
+        <v>7</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4148,10 +4148,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>2500</v>
+        <v>775</v>
       </c>
       <c r="N59" t="n">
-        <v>11075</v>
+        <v>5425</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4161,14 +4161,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="B60" t="n">
-        <v>253043</v>
+        <v>114196</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Салфетки 330х330 мм 3-сл., диз. "Золотой салют", разноцв., бум., 20 шт/упак "Bouquet"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t xml:space="preserve">РУССКАЯ БУМАГА </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Салфетки сервировочн</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Крышки для универсальных контейнеров для суши длиной от 200 мм</t>
+          <t>Салфетки с тематическим дизайном 3-слойные 33х33 (40х40)</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4203,18 +4203,18 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>32.89</v>
+        <v>234.57</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="N60" t="n">
-        <v>11018.15</v>
+        <v>4456.83</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4224,14 +4224,14 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1023</v>
+        <v>400</v>
       </c>
       <c r="B61" t="n">
-        <v>451356</v>
+        <v>451423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
+          <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4256,17 +4256,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 2-слойные из целлюлозы</t>
+          <t>Полотенца бумажные бытовые в рулонах 2-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0.4833948339483395</v>
       </c>
       <c r="K61" t="n">
-        <v>878.46</v>
+        <v>246.31</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N61" t="n">
-        <v>10541.52</v>
+        <v>3940.96</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4287,14 +4287,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45</v>
+        <v>758</v>
       </c>
       <c r="B62" t="n">
-        <v>470243</v>
+        <v>108563</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Средство для мытья посуды "Ника" Супер плюс. Лайм, концентрат, канистра, 5000 г</t>
+          <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>НПФ ГЕНИКС ООО</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4314,33 +4314,33 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Бумага туалетная</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Средства профессиональные для ручного мытья посуды от 3.5 л (кг)</t>
+          <t>Бумага туалетная для диспенсеров в рулонах 1-слойная из макулатуры</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K62" t="n">
-        <v>2607.41</v>
+        <v>293.23</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N62" t="n">
-        <v>10429.64</v>
+        <v>3518.76</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4350,24 +4350,24 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="B63" t="n">
-        <v>112834</v>
+        <v>112306</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+          <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4377,22 +4377,22 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Пакеты на вынос</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Пакеты бумажные без ручек на вынос белые, крафт размер S</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>0.359871974394879</v>
+        <v>0.6614173228346457</v>
       </c>
       <c r="K63" t="n">
-        <v>5.58</v>
+        <v>2293.2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4400,10 +4400,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1826.5</v>
+        <v>1.5</v>
       </c>
       <c r="N63" t="n">
-        <v>10191.87</v>
+        <v>3439.8</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4413,24 +4413,24 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>798</v>
+        <v>460</v>
       </c>
       <c r="B64" t="n">
-        <v>112788</v>
+        <v>100821</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4440,22 +4440,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Соусники и крышки</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Соусники ПП с неразъемной крышкой до 50 мл</t>
+          <t>Стаканы бумажные 400-490 мл белые, крафт 2-слойные</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="K64" t="n">
-        <v>5.95</v>
+        <v>34.96</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1640</v>
+        <v>90</v>
       </c>
       <c r="N64" t="n">
-        <v>9758</v>
+        <v>3146.4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>863</v>
+        <v>267</v>
       </c>
       <c r="B65" t="n">
-        <v>114198</v>
+        <v>101365</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Салфетки 330х330 мм 3-сл., диз. "Новогоднее поздравление", разноцв., бум., 20 шт/упак "Bouquet"</t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">РУССКАЯ БУМАГА </t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4503,33 +4503,33 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Салфетки сервировочн</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Салфетки с тематическим дизайном 3-слойные 33х33 (40х40)</t>
+          <t>Хлоросодержащие средства жидкие от 5.0 л</t>
         </is>
       </c>
       <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Регулярные</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>234.57</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Хорошие новинки</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>36</v>
-      </c>
       <c r="N65" t="n">
-        <v>8444.52</v>
+        <v>1600</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -4539,24 +4539,24 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1114</v>
+        <v>81</v>
       </c>
       <c r="B66" t="n">
-        <v>115168</v>
+        <v>108601</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коробка для кондит. изделий 160х160х100 мм, с окном, неразъем.крышка, бел., карт., 25 шт/упак "OSQ" </t>
+          <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ТОНУС-Л ООО</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4566,791 +4566,35 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Упаковка для кондите</t>
+          <t>Инвентарь для уборки</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Упаковка для кондитерских изделий картонная с окном</t>
+          <t>Салфетки для уборки из вискозы</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="K66" t="n">
-        <v>156.17</v>
+        <v>128.6</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
-        <v>7808.499999999999</v>
+        <v>514.4</v>
       </c>
       <c r="O66" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B67" t="n">
-        <v>113312</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. "Master Bake"</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>МПП ТРЕЙД ООО</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Пергамент и бумага д</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Бумага для выпечки силиконизированная в рулоне</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>702.24</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Хорошие новинки</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>11</v>
-      </c>
-      <c r="N67" t="n">
-        <v>7724.64</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B68" t="n">
-        <v>102185</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Мешки для мусора</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Мешки для мусора в рулонах 120 л</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="K68" t="n">
-        <v>275.63</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="N68" t="n">
-        <v>7304.195</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B69" t="n">
-        <v>103473</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ВЗЛП ООО</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Столовые приборы</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Ложки пластиковые столовые цветные 180 мм</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5235602094240838</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1312.5</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6615</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B70" t="n">
-        <v>103187</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО Пласт-Сервис Плюс)</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ПЛАСТ-СЕРВИС ПЛ</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Столовые приборы</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Ложки пластиковые столовые белые до 165 мм</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4424778761061947</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1700</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6596</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B71" t="n">
-        <v>114196</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Салфетки 330х330 мм 3-сл., диз. "Золотой салют", разноцв., бум., 20 шт/упак "Bouquet"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">РУССКАЯ БУМАГА </t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Салфетки сервировочн</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Салфетки с тематическим дизайном 3-слойные 33х33 (40х40)</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>234.57</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Хорошие новинки</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>19</v>
-      </c>
-      <c r="N71" t="n">
-        <v>4456.83</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B72" t="n">
-        <v>451423</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Полотенца бумажные</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Полотенца бумажные бытовые в рулонах 2-слойные из целлюлозы</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4888059701492538</v>
-      </c>
-      <c r="K72" t="n">
-        <v>246.31</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>16</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3940.96</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B73" t="n">
-        <v>108563</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Бумага туалетная</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Бумага туалетная для диспенсеров в рулонах 1-слойная из макулатуры</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="K73" t="n">
-        <v>293.23</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>12</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3518.76</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B74" t="n">
-        <v>112306</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ТК ТАСМА ООО</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Пакеты фасовочные</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6614173228346457</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2293.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3439.8</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B75" t="n">
-        <v>100821</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ПАПЕРСКОП РУС О</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Стаканы</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Стаканы бумажные 400-490 мл белые, крафт 2-слойные</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4897959183673469</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>90</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3146.4</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B76" t="n">
-        <v>105090</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, син., 400 шт/кор (ООО ОНМ)</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ОБЪЕДИНЕННЫЕ НЕ</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Инвентарь для уборки</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Салфетки для уборки из микрофибры</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.3252032520325203</v>
-      </c>
-      <c r="K76" t="n">
-        <v>120.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2327.325</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B77" t="n">
-        <v>101365</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ИП Platinum Sha</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Бытовая и профессион</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Хлоросодержащие средства жидкие от 5.0 л</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1600</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B78" t="n">
-        <v>108601</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>ТОНУС-Л ООО</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Инвентарь для уборки</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Салфетки для уборки из вискозы</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="K78" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Регулярные</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>4</v>
-      </c>
-      <c r="N78" t="n">
-        <v>514.4</v>
-      </c>
-      <c r="O78" t="inlineStr">
         <is>
           <t>Дефицит</t>
         </is>
